--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_17-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_17-55.xlsx
@@ -164,6 +164,9 @@
     <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
   </si>
   <si>
+    <t>NAN PRE MILK 400 GM</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARJI  LOTION</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">بادي سبلاش يارا </t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 1</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1643,13 +1649,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1669,17 +1675,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1695,17 +1701,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1721,17 +1727,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>102</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1747,13 +1753,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1773,17 +1779,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1791,7 +1797,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1799,17 +1805,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1825,17 +1831,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1843,7 +1849,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1851,17 +1857,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1877,17 +1883,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1929,13 +1935,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1961,11 +1967,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1981,13 +1987,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1999,7 +2005,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2007,13 +2013,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>2.5</v>
+        <v>51</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2025,7 +2031,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2033,13 +2039,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>48</v>
+        <v>2.5</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2059,13 +2065,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2085,13 +2091,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2111,17 +2117,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2129,7 +2135,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2137,17 +2143,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2155,7 +2161,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2163,17 +2169,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2181,7 +2187,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2189,17 +2195,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2207,7 +2213,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2215,17 +2221,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2233,7 +2239,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2241,17 +2247,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2259,7 +2265,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2267,17 +2273,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2285,7 +2291,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2293,13 +2299,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2311,7 +2317,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2319,17 +2325,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2337,7 +2343,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2345,17 +2351,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2363,7 +2369,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2371,13 +2377,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2389,7 +2395,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2397,51 +2403,103 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
-      <c r="K63" s="10">
-        <v>4245.8299999999999</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" ht="17.25" customHeight="1">
-      <c t="s" r="A64" s="11">
+      <c r="A63" s="6">
+        <v>60</v>
+      </c>
+      <c t="s" r="B63" s="7">
+        <v>95</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c t="s" r="H63" s="8">
+        <v>9</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9">
+        <v>70</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c t="s" r="N63" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
         <v>96</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c t="s" r="F64" s="12">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
         <v>97</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-      <c t="s" r="I64" s="14">
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>45</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="26.25" customHeight="1">
+      <c r="K65" s="10">
+        <v>4920.8299999999999</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="11">
         <v>98</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c t="s" r="F66" s="12">
+        <v>99</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
+      <c t="s" r="I66" s="14">
+        <v>100</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="188">
+  <mergeCells count="194">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2626,10 +2684,16 @@
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:N66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
